--- a/SoilBoringLog1.xlsx
+++ b/SoilBoringLog1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9B56A5-A953-4CE8-AD97-F8CB6197A7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09DFE20-4786-48AC-84C8-6E0F73A1C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +611,9 @@
       <c r="D4">
         <v>3.8</v>
       </c>
+      <c r="E4">
+        <v>1.8</v>
+      </c>
       <c r="F4">
         <v>100</v>
       </c>
@@ -631,6 +634,9 @@
       <c r="C5">
         <v>1.95</v>
       </c>
+      <c r="E5">
+        <v>1.8</v>
+      </c>
       <c r="N5">
         <v>10</v>
       </c>
@@ -648,6 +654,9 @@
       <c r="D6">
         <v>6.5</v>
       </c>
+      <c r="E6">
+        <v>1.8</v>
+      </c>
       <c r="N6">
         <v>11</v>
       </c>
@@ -662,6 +671,9 @@
       <c r="C7">
         <v>3.45</v>
       </c>
+      <c r="E7">
+        <v>1.8</v>
+      </c>
       <c r="N7">
         <v>8</v>
       </c>
@@ -679,6 +691,9 @@
       <c r="D8">
         <v>12.3</v>
       </c>
+      <c r="E8">
+        <v>1.8</v>
+      </c>
       <c r="G8">
         <v>18</v>
       </c>
@@ -699,6 +714,9 @@
       <c r="D9">
         <v>11.3</v>
       </c>
+      <c r="E9">
+        <v>1.8</v>
+      </c>
       <c r="H9">
         <v>41</v>
       </c>
@@ -707,6 +725,9 @@
       </c>
       <c r="J9">
         <v>21.2</v>
+      </c>
+      <c r="N9">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -722,6 +743,12 @@
       <c r="D10">
         <v>14.2</v>
       </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
+      <c r="N10">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -736,6 +763,9 @@
       <c r="D11">
         <v>9.8000000000000007</v>
       </c>
+      <c r="E11">
+        <v>1.8</v>
+      </c>
       <c r="F11">
         <v>100</v>
       </c>
@@ -768,6 +798,9 @@
       <c r="D12">
         <v>6.6</v>
       </c>
+      <c r="E12">
+        <v>1.8</v>
+      </c>
       <c r="F12">
         <v>84</v>
       </c>
@@ -788,6 +821,9 @@
       <c r="C13">
         <v>9.1</v>
       </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
       <c r="N13">
         <v>100</v>
       </c>
@@ -802,6 +838,9 @@
       <c r="C14">
         <v>9.32</v>
       </c>
+      <c r="E14">
+        <v>1.8</v>
+      </c>
       <c r="N14">
         <v>100</v>
       </c>
@@ -816,6 +855,12 @@
       <c r="C15">
         <v>10.51</v>
       </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -827,6 +872,12 @@
       <c r="C16">
         <v>12</v>
       </c>
+      <c r="E16">
+        <v>1.8</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -838,6 +889,9 @@
       <c r="C17">
         <v>12.31</v>
       </c>
+      <c r="E17">
+        <v>1.8</v>
+      </c>
       <c r="N17">
         <v>100</v>
       </c>
@@ -855,6 +909,9 @@
       <c r="D18">
         <v>10.199999999999999</v>
       </c>
+      <c r="E18">
+        <v>1.8</v>
+      </c>
       <c r="F18">
         <v>91</v>
       </c>
@@ -884,6 +941,9 @@
       <c r="C19">
         <v>15.15</v>
       </c>
+      <c r="E19">
+        <v>1.8</v>
+      </c>
       <c r="N19">
         <v>100</v>
       </c>
@@ -898,6 +958,9 @@
       <c r="C20">
         <v>16.52</v>
       </c>
+      <c r="E20">
+        <v>1.8</v>
+      </c>
       <c r="N20">
         <v>100</v>
       </c>
@@ -912,6 +975,9 @@
       <c r="C21">
         <v>17</v>
       </c>
+      <c r="E21">
+        <v>1.8</v>
+      </c>
       <c r="N21">
         <v>100</v>
       </c>
@@ -926,6 +992,12 @@
       <c r="C22">
         <v>17.899999999999999</v>
       </c>
+      <c r="E22">
+        <v>1.8</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -937,6 +1009,12 @@
       <c r="C23">
         <v>18.32</v>
       </c>
+      <c r="E23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -948,6 +1026,12 @@
       <c r="C24">
         <v>19.350000000000001</v>
       </c>
+      <c r="E24">
+        <v>1.8</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -958,6 +1042,12 @@
       </c>
       <c r="C25">
         <v>20</v>
+      </c>
+      <c r="E25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/SoilBoringLog1.xlsx
+++ b/SoilBoringLog1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09DFE20-4786-48AC-84C8-6E0F73A1C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C5F58-B4CF-495A-B71E-D23146072C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,8 +634,17 @@
       <c r="C5">
         <v>1.95</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
       <c r="E5">
         <v>1.8</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
       </c>
       <c r="N5">
         <v>10</v>
@@ -657,6 +666,12 @@
       <c r="E6">
         <v>1.8</v>
       </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>21</v>
+      </c>
       <c r="N6">
         <v>11</v>
       </c>
@@ -671,8 +686,17 @@
       <c r="C7">
         <v>3.45</v>
       </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
       <c r="E7">
         <v>1.8</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
       </c>
       <c r="N7">
         <v>8</v>
@@ -694,6 +718,9 @@
       <c r="E8">
         <v>1.8</v>
       </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
       <c r="G8">
         <v>18</v>
       </c>
@@ -717,6 +744,12 @@
       <c r="E9">
         <v>1.8</v>
       </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
       <c r="H9">
         <v>41</v>
       </c>
@@ -746,6 +779,12 @@
       <c r="E10">
         <v>1.8</v>
       </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
       <c r="N10">
         <v>38</v>
       </c>
@@ -821,8 +860,17 @@
       <c r="C13">
         <v>9.1</v>
       </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
       <c r="E13">
         <v>1.8</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
       </c>
       <c r="N13">
         <v>100</v>
@@ -838,8 +886,17 @@
       <c r="C14">
         <v>9.32</v>
       </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
       <c r="E14">
         <v>1.8</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -855,8 +912,17 @@
       <c r="C15">
         <v>10.51</v>
       </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
       <c r="E15">
         <v>1.8</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -872,8 +938,17 @@
       <c r="C16">
         <v>12</v>
       </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
       <c r="E16">
         <v>1.8</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
       </c>
       <c r="N16">
         <v>100</v>
@@ -889,8 +964,17 @@
       <c r="C17">
         <v>12.31</v>
       </c>
+      <c r="D17">
+        <v>10.199999999999999</v>
+      </c>
       <c r="E17">
         <v>1.8</v>
+      </c>
+      <c r="F17">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
       </c>
       <c r="N17">
         <v>100</v>
@@ -941,8 +1025,17 @@
       <c r="C19">
         <v>15.15</v>
       </c>
+      <c r="D19">
+        <v>10.199999999999999</v>
+      </c>
       <c r="E19">
         <v>1.8</v>
+      </c>
+      <c r="F19">
+        <v>91</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
       </c>
       <c r="N19">
         <v>100</v>
@@ -958,8 +1051,17 @@
       <c r="C20">
         <v>16.52</v>
       </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
       <c r="E20">
         <v>1.8</v>
+      </c>
+      <c r="F20">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
       </c>
       <c r="N20">
         <v>100</v>
@@ -975,8 +1077,17 @@
       <c r="C21">
         <v>17</v>
       </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
       <c r="E21">
         <v>1.8</v>
+      </c>
+      <c r="F21">
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -992,8 +1103,17 @@
       <c r="C22">
         <v>17.899999999999999</v>
       </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
       <c r="E22">
         <v>1.8</v>
+      </c>
+      <c r="F22">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
       </c>
       <c r="N22">
         <v>100</v>
@@ -1009,8 +1129,17 @@
       <c r="C23">
         <v>18.32</v>
       </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
       <c r="E23">
         <v>1.8</v>
+      </c>
+      <c r="F23">
+        <v>91</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
       </c>
       <c r="N23">
         <v>100</v>
@@ -1026,8 +1155,17 @@
       <c r="C24">
         <v>19.350000000000001</v>
       </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
       <c r="E24">
         <v>1.8</v>
+      </c>
+      <c r="F24">
+        <v>91</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
       </c>
       <c r="N24">
         <v>100</v>
@@ -1043,8 +1181,17 @@
       <c r="C25">
         <v>20</v>
       </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
       <c r="E25">
         <v>1.8</v>
+      </c>
+      <c r="F25">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
       </c>
       <c r="N25">
         <v>100</v>
